--- a/public/coupons_cnn.xlsx
+++ b/public/coupons_cnn.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,167 +424,207 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>adidas</v>
+        <v>chewy</v>
       </c>
       <c r="B2" t="str">
-        <v>Exclusive Offer Free $30 adidas Gift Card with $100 or More Purchase</v>
+        <v>Valid Chewy Promo Code for 20% Off Your Order</v>
       </c>
       <c r="C2" t="str">
-        <v>Exp. 04/01/2025</v>
+        <v>Exp. 04/02/2025</v>
       </c>
       <c r="D2" t="str">
-        <v>Use This adidas Coupon and Get 15% Off Your Order</v>
+        <v>Valid Chewy Promo Code for 20% Off Your Order</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: 15%&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: New and Existing Customers&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: 20%&lt;/p&gt;&lt;p&gt;&lt;b&gt;Minimum Order&lt;/b&gt;: No minimum&lt;/p&gt;</v>
       </c>
       <c r="F2" t="str">
-        <v>https://coupons.cnn.com/images/fit-in/256x/images/a/adidas-logo.png</v>
+        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>adidas</v>
+        <v>chewy</v>
       </c>
       <c r="B3" t="str">
-        <v>Use This adidas Coupon and Get 15% Off Your Order</v>
+        <v>Get $5 Off Kruse's Perfection Brand Items Using This Chewy Discount Code</v>
       </c>
       <c r="C3" t="str">
-        <v>Exp. 07/01/2025</v>
+        <v>Exp. 06/30/2025</v>
       </c>
       <c r="D3" t="str">
-        <v>Get Extra 30% Off Select Styles with Adidas Promo Code</v>
+        <v>Get $5 Off Kruse's Perfection Brand Items Using This Chewy Discount Code</v>
       </c>
       <c r="E3" t="str">
-        <v>&lt;p&gt;&lt;/p&gt;&lt;p&gt;Exclusions apply. Use code at checkout for discount.&lt;/p&gt;&lt;p&gt;&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: $5&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: New and Existing Customers&lt;/p&gt;</v>
       </c>
       <c r="F3" t="str">
-        <v>https://coupons.cnn.com/images/fit-in/256x/images/a/adidas-logo.png</v>
+        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>adidas</v>
+        <v>chewy</v>
       </c>
       <c r="B4" t="str">
-        <v>Get Extra 30% Off Select Styles with Adidas Promo Code</v>
+        <v>40% Discount on $49+ Purchases</v>
       </c>
       <c r="C4" t="str">
-        <v>Exp. 04/01/2025</v>
+        <v>Exp. 04/04/2025</v>
       </c>
       <c r="D4" t="str">
-        <v>Save 15% on Everything with This adidas Coupon</v>
+        <v>40% Discount on $49+ Purchases</v>
       </c>
       <c r="E4" t="str">
-        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: 15%&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: New and Existing Customers&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: 40%&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: New and Existing Customers&lt;/p&gt;</v>
       </c>
       <c r="F4" t="str">
-        <v>https://coupons.cnn.com/images/fit-in/256x/images/a/adidas-logo.png</v>
+        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>adidas</v>
+        <v>chewy</v>
       </c>
       <c r="B5" t="str">
-        <v>Save 15% on Everything with This adidas Coupon</v>
+        <v>$20 Off Your $49+ Purchase via Chewy Coupon</v>
       </c>
       <c r="C5" t="str">
-        <v>Exp. 03/27/2025</v>
+        <v>Exp. 04/02/2025</v>
       </c>
       <c r="D5" t="str">
-        <v>Students Receive an Extra 30% Off Any Order + Free Shipping with This adidas Coupon</v>
+        <v>$20 Off Your $49+ Purchase via Chewy Coupon</v>
       </c>
       <c r="E5" t="str">
-        <v>&lt;p&gt;Must verify student status through UNiDAYS on the adidas website to receive discount.&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: $20&lt;/p&gt;&lt;p&gt;&lt;b&gt;Minimum Order&lt;/b&gt;: $49&lt;/p&gt;</v>
       </c>
       <c r="F5" t="str">
-        <v>https://coupons.cnn.com/images/fit-in/256x/images/a/adidas-logo.png</v>
+        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>adidas</v>
+        <v>chewy</v>
       </c>
       <c r="B6" t="str">
-        <v>Students Receive an Extra 30% Off Any Order + Free Shipping with This adidas Coupon</v>
+        <v>Get Extra 10% Off Your Purchase with Chewy Promo Code</v>
       </c>
       <c r="C6" t="str">
-        <v>Exp. 04/04/2025</v>
+        <v>Exp. 04/02/2025</v>
       </c>
       <c r="D6" t="str">
-        <v>Get 15% Off Your First Order + Free Shipping Using This adidas Discount Code</v>
+        <v>Get Extra 10% Off Your Purchase with Chewy Promo Code</v>
       </c>
       <c r="E6" t="str">
-        <v>&lt;p&gt;Code sent via email following adiClub registration.&lt;/p&gt;</v>
+        <v/>
       </c>
       <c r="F6" t="str">
-        <v>https://coupons.cnn.com/images/fit-in/256x/images/a/adidas-logo.png</v>
+        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>adidas</v>
+        <v>chewy</v>
       </c>
       <c r="B7" t="str">
-        <v>Get 15% Off Your First Order + Free Shipping Using This adidas Discount Code</v>
+        <v>Enjoy a Free $20 eGift Card with This Chewy Promo Code</v>
       </c>
       <c r="C7" t="str">
-        <v>Exp. 04/17/2025</v>
+        <v>Exp. 04/02/2025</v>
       </c>
       <c r="D7" t="str">
-        <v>Apply This adidas Coupon and Get 15% Off Select Orders</v>
+        <v>Enjoy a Free $20 eGift Card with This Chewy Promo Code</v>
       </c>
       <c r="E7" t="str">
-        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: 15%&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: New and Existing Customers&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: $20 eGift Card&lt;/p&gt;&lt;p&gt;&lt;b&gt;Minimum Order&lt;/b&gt;: $49&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: New and Existing Customers&lt;/p&gt;</v>
       </c>
       <c r="F7" t="str">
-        <v>https://coupons.cnn.com/images/fit-in/256x/images/a/adidas-logo.png</v>
+        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>adidas</v>
+        <v>chewy</v>
       </c>
       <c r="B8" t="str">
-        <v>Apply This adidas Coupon and Get 15% Off Select Orders</v>
+        <v>$30 Off Your $150 Order via This Coupon Code</v>
       </c>
       <c r="C8" t="str">
-        <v>Exp. 04/03/2025</v>
+        <v>Expires tomorrow</v>
       </c>
       <c r="D8" t="str">
-        <v>Apply This adidas Discount Code and Get 15% Off Select Orders</v>
+        <v>$30 Off Your $150 Order via This Coupon Code</v>
       </c>
       <c r="E8" t="str">
-        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: 15%&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: New and Existing Customers&lt;/p&gt;</v>
+        <v/>
       </c>
       <c r="F8" t="str">
-        <v>https://coupons.cnn.com/images/fit-in/256x/images/a/adidas-logo.png</v>
+        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>adidas</v>
+        <v>chewy</v>
       </c>
       <c r="B9" t="str">
-        <v>Apply This adidas Discount Code and Get 15% Off Select Orders</v>
+        <v>Extra 10% Off Selected Orders with Chewy Promo Code</v>
       </c>
       <c r="C9" t="str">
+        <v>Exp. 04/04/2025</v>
+      </c>
+      <c r="D9" t="str">
+        <v>Extra 10% Off Selected Orders with Chewy Promo Code</v>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>chewy</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Receive a Free $20 eGift Card on Orders of $49+ with This Chewy Promo Code</v>
+      </c>
+      <c r="C10" t="str">
         <v>Exp. 04/02/2025</v>
       </c>
-      <c r="D9" t="str">
-        <v>Teachers Save 30% with This adidas Coupon Code</v>
-      </c>
-      <c r="E9" t="str">
-        <v>&lt;p&gt;Verify your status through ID.me to receive your unique coupon code.&lt;/p&gt;&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: 30%&lt;/p&gt;&lt;p&gt;&lt;b&gt;Minimum Order&lt;/b&gt;: N/A&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: Teachers Only&lt;/p&gt;</v>
-      </c>
-      <c r="F9" t="str">
-        <v>https://coupons.cnn.com/images/fit-in/256x/images/a/adidas-logo.png</v>
+      <c r="D10" t="str">
+        <v>Receive a Free $20 eGift Card on Orders of $49+ with This Chewy Promo Code</v>
+      </c>
+      <c r="E10" t="str">
+        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: $20&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: New and Existing Customers&lt;/p&gt;</v>
+      </c>
+      <c r="F10" t="str">
+        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>chewy</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Save 20% on Select Food and Treats Applying This Discount Code</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Exp. 04/02/2025</v>
+      </c>
+      <c r="D11" t="str">
+        <v>Save 20% on Select Food and Treats Applying This Discount Code</v>
+      </c>
+      <c r="E11" t="str">
+        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: 20%&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: New and Existing Customers&lt;/p&gt;</v>
+      </c>
+      <c r="F11" t="str">
+        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F11"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/public/coupons_cnn.xlsx
+++ b/public/coupons_cnn.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,207 +424,167 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>chewy</v>
+        <v>adidas</v>
       </c>
       <c r="B2" t="str">
-        <v>Valid Chewy Promo Code for 20% Off Your Order</v>
+        <v>Exclusive Offer Free $30 adidas Gift Card with $100 or More Purchase</v>
       </c>
       <c r="C2" t="str">
-        <v>Exp. 04/02/2025</v>
+        <v>Exp. 07/01/2025</v>
       </c>
       <c r="D2" t="str">
-        <v>Valid Chewy Promo Code for 20% Off Your Order</v>
+        <v>Get Extra 30% Off Select Styles with Adidas Promo Code</v>
       </c>
       <c r="E2" t="str">
-        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: 20%&lt;/p&gt;&lt;p&gt;&lt;b&gt;Minimum Order&lt;/b&gt;: No minimum&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;/p&gt;&lt;p&gt;Exclusions apply. Use code at checkout for discount.&lt;/p&gt;&lt;p&gt;&lt;/p&gt;</v>
       </c>
       <c r="F2" t="str">
-        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
+        <v>https://coupons.cnn.com/images/fit-in/256x/images/a/adidas-logo.png</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>chewy</v>
+        <v>adidas</v>
       </c>
       <c r="B3" t="str">
-        <v>Get $5 Off Kruse's Perfection Brand Items Using This Chewy Discount Code</v>
+        <v>Get Extra 30% Off Select Styles with Adidas Promo Code</v>
       </c>
       <c r="C3" t="str">
-        <v>Exp. 06/30/2025</v>
+        <v>Exp. 04/01/2025</v>
       </c>
       <c r="D3" t="str">
-        <v>Get $5 Off Kruse's Perfection Brand Items Using This Chewy Discount Code</v>
+        <v>Use This adidas Coupon and Get 15% Off Your Order</v>
       </c>
       <c r="E3" t="str">
-        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: $5&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: New and Existing Customers&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: 15%&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: New and Existing Customers&lt;/p&gt;</v>
       </c>
       <c r="F3" t="str">
-        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
+        <v>https://coupons.cnn.com/images/fit-in/256x/images/a/adidas-logo.png</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>chewy</v>
+        <v>adidas</v>
       </c>
       <c r="B4" t="str">
-        <v>40% Discount on $49+ Purchases</v>
+        <v>Use This adidas Coupon and Get 15% Off Your Order</v>
       </c>
       <c r="C4" t="str">
-        <v>Exp. 04/04/2025</v>
+        <v>Exp. 07/01/2025</v>
       </c>
       <c r="D4" t="str">
-        <v>40% Discount on $49+ Purchases</v>
+        <v>Save 15% on Everything with This adidas Coupon</v>
       </c>
       <c r="E4" t="str">
-        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: 40%&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: New and Existing Customers&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: 15%&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: New and Existing Customers&lt;/p&gt;</v>
       </c>
       <c r="F4" t="str">
-        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
+        <v>https://coupons.cnn.com/images/fit-in/256x/images/a/adidas-logo.png</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>chewy</v>
+        <v>adidas</v>
       </c>
       <c r="B5" t="str">
-        <v>$20 Off Your $49+ Purchase via Chewy Coupon</v>
+        <v>Save 15% on Everything with This adidas Coupon</v>
       </c>
       <c r="C5" t="str">
-        <v>Exp. 04/02/2025</v>
+        <v>Exp. 04/03/2025</v>
       </c>
       <c r="D5" t="str">
-        <v>$20 Off Your $49+ Purchase via Chewy Coupon</v>
+        <v>Students Receive an Extra 30% Off Any Order + Free Shipping with This adidas Coupon</v>
       </c>
       <c r="E5" t="str">
-        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: $20&lt;/p&gt;&lt;p&gt;&lt;b&gt;Minimum Order&lt;/b&gt;: $49&lt;/p&gt;</v>
+        <v>&lt;p&gt;Must verify student status through UNiDAYS on the adidas website to receive discount.&lt;/p&gt;</v>
       </c>
       <c r="F5" t="str">
-        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
+        <v>https://coupons.cnn.com/images/fit-in/256x/images/a/adidas-logo.png</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>chewy</v>
+        <v>adidas</v>
       </c>
       <c r="B6" t="str">
-        <v>Get Extra 10% Off Your Purchase with Chewy Promo Code</v>
+        <v>Students Receive an Extra 30% Off Any Order + Free Shipping with This adidas Coupon</v>
       </c>
       <c r="C6" t="str">
-        <v>Exp. 04/02/2025</v>
+        <v>Exp. 04/04/2025</v>
       </c>
       <c r="D6" t="str">
-        <v>Get Extra 10% Off Your Purchase with Chewy Promo Code</v>
+        <v>Get 15% Off Your First Order + Free Shipping Using This adidas Discount Code</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>&lt;p&gt;Code sent via email following adiClub registration.&lt;/p&gt;</v>
       </c>
       <c r="F6" t="str">
-        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
+        <v>https://coupons.cnn.com/images/fit-in/256x/images/a/adidas-logo.png</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>chewy</v>
+        <v>adidas</v>
       </c>
       <c r="B7" t="str">
-        <v>Enjoy a Free $20 eGift Card with This Chewy Promo Code</v>
+        <v>Get 15% Off Your First Order + Free Shipping Using This adidas Discount Code</v>
       </c>
       <c r="C7" t="str">
-        <v>Exp. 04/02/2025</v>
+        <v>Exp. 04/17/2025</v>
       </c>
       <c r="D7" t="str">
-        <v>Enjoy a Free $20 eGift Card with This Chewy Promo Code</v>
+        <v>Apply This adidas Coupon and Get 15% Off Select Orders</v>
       </c>
       <c r="E7" t="str">
-        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: $20 eGift Card&lt;/p&gt;&lt;p&gt;&lt;b&gt;Minimum Order&lt;/b&gt;: $49&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: New and Existing Customers&lt;/p&gt;</v>
+        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: 15%&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: New and Existing Customers&lt;/p&gt;</v>
       </c>
       <c r="F7" t="str">
-        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
+        <v>https://coupons.cnn.com/images/fit-in/256x/images/a/adidas-logo.png</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>chewy</v>
+        <v>adidas</v>
       </c>
       <c r="B8" t="str">
-        <v>$30 Off Your $150 Order via This Coupon Code</v>
+        <v>Apply This adidas Coupon and Get 15% Off Select Orders</v>
       </c>
       <c r="C8" t="str">
-        <v>Expires tomorrow</v>
+        <v>Exp. 04/03/2025</v>
       </c>
       <c r="D8" t="str">
-        <v>$30 Off Your $150 Order via This Coupon Code</v>
+        <v>Apply This adidas Discount Code and Get 15% Off Select Orders</v>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: 15%&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: New and Existing Customers&lt;/p&gt;</v>
       </c>
       <c r="F8" t="str">
-        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
+        <v>https://coupons.cnn.com/images/fit-in/256x/images/a/adidas-logo.png</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>chewy</v>
+        <v>adidas</v>
       </c>
       <c r="B9" t="str">
-        <v>Extra 10% Off Selected Orders with Chewy Promo Code</v>
+        <v>Apply This adidas Discount Code and Get 15% Off Select Orders</v>
       </c>
       <c r="C9" t="str">
-        <v>Exp. 04/04/2025</v>
+        <v>Exp. 04/02/2025</v>
       </c>
       <c r="D9" t="str">
-        <v>Extra 10% Off Selected Orders with Chewy Promo Code</v>
+        <v>Teachers Save 30% with This adidas Coupon Code</v>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v>&lt;p&gt;Verify your status through ID.me to receive your unique coupon code.&lt;/p&gt;&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: 30%&lt;/p&gt;&lt;p&gt;&lt;b&gt;Minimum Order&lt;/b&gt;: N/A&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: Teachers Only&lt;/p&gt;</v>
       </c>
       <c r="F9" t="str">
-        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>chewy</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Receive a Free $20 eGift Card on Orders of $49+ with This Chewy Promo Code</v>
-      </c>
-      <c r="C10" t="str">
-        <v>Exp. 04/02/2025</v>
-      </c>
-      <c r="D10" t="str">
-        <v>Receive a Free $20 eGift Card on Orders of $49+ with This Chewy Promo Code</v>
-      </c>
-      <c r="E10" t="str">
-        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: $20&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: New and Existing Customers&lt;/p&gt;</v>
-      </c>
-      <c r="F10" t="str">
-        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>chewy</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Save 20% on Select Food and Treats Applying This Discount Code</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Exp. 04/02/2025</v>
-      </c>
-      <c r="D11" t="str">
-        <v>Save 20% on Select Food and Treats Applying This Discount Code</v>
-      </c>
-      <c r="E11" t="str">
-        <v>&lt;p&gt;&lt;b&gt;Total Savings&lt;/b&gt;: 20%&lt;/p&gt;&lt;p&gt;&lt;b&gt;Customer Restrictions&lt;/b&gt;: New and Existing Customers&lt;/p&gt;</v>
-      </c>
-      <c r="F11" t="str">
-        <v>https://coupons.cnn.com/images/fit-in/256x/images/c/Chewy_Logo.png</v>
+        <v>https://coupons.cnn.com/images/fit-in/256x/images/a/adidas-logo.png</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F9"/>
   </ignoredErrors>
 </worksheet>
 </file>